--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_21_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_21_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72671.67426161616</v>
+        <v>86398.03239903433</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,7 +26530,7 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-86100.50395874451</v>
+        <v>-86100.50395874456</v>
       </c>
       <c r="F6" t="n">
         <v>46999.49604125549</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_21_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_21_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86398.03239903433</v>
+        <v>-71354.2632043482</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>11646293.72669495</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27752399.88113482</v>
+        <v>25921926.35092068</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1097885.038492153</v>
+        <v>2129948.806781944</v>
       </c>
     </row>
     <row r="11">
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8154,10 +8154,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8458,13 +8458,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8473,10 +8473,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,13 +8610,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -8625,13 +8625,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8698,22 +8698,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9102,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9339,10 +9339,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -9813,10 +9813,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10050,10 +10050,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -10524,10 +10524,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10752,19 +10752,19 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10834,19 +10834,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10998,7 +10998,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>220.0898510449805</v>
@@ -22585,16 +22585,16 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22646,13 +22646,13 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -22670,10 +22670,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22728,10 +22728,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>134.8846762812383</v>
@@ -22746,10 +22746,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22810,7 +22810,7 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>235.7664149699872</v>
@@ -22831,7 +22831,7 @@
         <v>222.3056898744495</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22901,7 +22901,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -22910,7 +22910,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22965,10 +22965,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>134.8846762812383</v>
@@ -22986,7 +22986,7 @@
         <v>137.7280040491476</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23050,13 +23050,13 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>230.0982114216867</v>
@@ -23065,10 +23065,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23120,7 +23120,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>126.8376266666667</v>
@@ -23144,10 +23144,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23202,13 +23202,13 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>138.9257839476051</v>
@@ -23217,13 +23217,13 @@
         <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23281,7 +23281,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J11" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>135.370731907559</v>
@@ -23290,22 +23290,22 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S11" t="n">
         <v>193.8433399116564</v>
@@ -23357,7 +23357,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I12" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J12" t="n">
         <v>93.17061249236157</v>
@@ -23384,7 +23384,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R12" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S12" t="n">
         <v>165.0641745378389</v>
@@ -23518,7 +23518,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>135.370731907559</v>
@@ -23539,10 +23539,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S14" t="n">
         <v>193.8433399116564</v>
@@ -23594,7 +23594,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I15" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J15" t="n">
         <v>93.17061249236157</v>
@@ -23621,7 +23621,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S15" t="n">
         <v>165.0641745378389</v>
@@ -23676,10 +23676,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J16" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K16" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>90.4687457914608</v>
@@ -23694,10 +23694,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R16" t="n">
         <v>163.8605191622716</v>
@@ -23779,7 +23779,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
         <v>193.8433399116564</v>
@@ -23831,13 +23831,13 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>61.18167021676314</v>
@@ -23852,13 +23852,13 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
         <v>165.0641745378389</v>
@@ -23913,10 +23913,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J19" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>90.4687457914608</v>
@@ -23931,10 +23931,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
         <v>163.8605191622716</v>
@@ -23992,13 +23992,13 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>113.4004983079896</v>
@@ -24007,7 +24007,7 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>135.4597561231036</v>
@@ -24016,7 +24016,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
         <v>193.8433399116564</v>
@@ -24068,10 +24068,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I21" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>80.29914934735042</v>
@@ -24092,10 +24092,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S21" t="n">
         <v>165.0641745378389</v>
@@ -24150,7 +24150,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
         <v>94.30397654773019</v>
@@ -24171,7 +24171,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R22" t="n">
         <v>163.8605191622716</v>
@@ -24229,7 +24229,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>135.370731907559</v>
@@ -24250,10 +24250,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
         <v>193.8433399116564</v>
@@ -24305,7 +24305,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
         <v>93.17061249236157</v>
@@ -24329,10 +24329,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S24" t="n">
         <v>165.0641745378389</v>
@@ -24387,7 +24387,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
         <v>94.30397654773019</v>
@@ -24405,10 +24405,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
         <v>163.8605191622716</v>
@@ -24466,7 +24466,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>135.370731907559</v>
@@ -24487,10 +24487,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S26" t="n">
         <v>193.8433399116564</v>
@@ -24542,7 +24542,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
         <v>93.17061249236157</v>
@@ -24566,10 +24566,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S27" t="n">
         <v>165.0641745378389</v>
@@ -24624,7 +24624,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
         <v>94.30397654773019</v>
@@ -24642,10 +24642,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R28" t="n">
         <v>163.8605191622716</v>
@@ -24727,7 +24727,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
         <v>193.8433399116564</v>
@@ -24779,10 +24779,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>80.29914934735042</v>
@@ -24800,13 +24800,13 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S30" t="n">
         <v>165.0641745378389</v>
@@ -24961,10 +24961,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S32" t="n">
         <v>193.8433399116564</v>
@@ -25016,10 +25016,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I33" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>80.29914934735042</v>
@@ -25040,10 +25040,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S33" t="n">
         <v>165.0641745378389</v>
@@ -25098,10 +25098,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J34" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K34" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>90.4687457914608</v>
@@ -25116,10 +25116,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R34" t="n">
         <v>163.8605191622716</v>
@@ -25177,7 +25177,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J35" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>135.370731907559</v>
@@ -25198,10 +25198,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S35" t="n">
         <v>193.8433399116564</v>
@@ -25253,10 +25253,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I36" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J36" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>80.29914934735042</v>
@@ -25277,10 +25277,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S36" t="n">
         <v>165.0641745378389</v>
@@ -25344,19 +25344,19 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R37" t="n">
         <v>163.8605191622716</v>
@@ -25414,7 +25414,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>135.370731907559</v>
@@ -25426,19 +25426,19 @@
         <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
         <v>193.8433399116564</v>
@@ -25490,10 +25490,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>80.29914934735042</v>
@@ -25517,7 +25517,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
         <v>165.0641745378389</v>
@@ -25590,7 +25590,7 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>126.4887893424616</v>
@@ -25651,13 +25651,13 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>113.4004983079896</v>
@@ -25675,7 +25675,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S41" t="n">
         <v>193.8433399116564</v>
@@ -25727,10 +25727,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I42" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>80.29914934735042</v>
@@ -25751,10 +25751,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S42" t="n">
         <v>165.0641745378389</v>
@@ -25809,10 +25809,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J43" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>90.4687457914608</v>
@@ -25830,7 +25830,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R43" t="n">
         <v>163.8605191622716</v>
@@ -25888,19 +25888,19 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>117.8828208804077</v>
@@ -25964,13 +25964,13 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>61.18167021676314</v>
@@ -25988,10 +25988,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
         <v>165.0641745378389</v>
@@ -26067,7 +26067,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R46" t="n">
         <v>163.8605191622716</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-8.640199666842817e-12</v>
+        <v>177457.8938996326</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-8.640199666842817e-12</v>
+        <v>63303.12059841027</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-8.640199666842817e-12</v>
+        <v>145890.7331373098</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>126527.7703656595</v>
+        <v>246282.189083465</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>126527.7703656595</v>
+        <v>191403.7501102345</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>126527.7703656595</v>
+        <v>177691.399220975</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>126527.7703656595</v>
+        <v>211051.64254639</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>126527.7703656595</v>
+        <v>194498.0448673842</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>126527.7703656595</v>
+        <v>194498.0448673842</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>126527.7703656595</v>
+        <v>159086.2499027922</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>126527.7703656595</v>
+        <v>187934.1196187681</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>126527.7703656595</v>
+        <v>207492.2922716691</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>126527.7703656595</v>
+        <v>241599.825003832</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>126527.7703656595</v>
+        <v>198413.3281851307</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>126527.7703656595</v>
+        <v>221366.8175265828</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>49988.13912665707</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>17831.86495729868</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>41095.98116543937</v>
       </c>
       <c r="E2" t="n">
-        <v>50611.10814626381</v>
+        <v>84344.74722170203</v>
       </c>
       <c r="F2" t="n">
-        <v>50611.10814626381</v>
+        <v>68886.03201797511</v>
       </c>
       <c r="G2" t="n">
-        <v>50611.10814626381</v>
+        <v>65023.39796466254</v>
       </c>
       <c r="H2" t="n">
-        <v>50611.10814626381</v>
+        <v>74420.6496056246</v>
       </c>
       <c r="I2" t="n">
-        <v>50611.10814626381</v>
+        <v>69757.66434393277</v>
       </c>
       <c r="J2" t="n">
-        <v>50611.10814626381</v>
+        <v>69757.66434393277</v>
       </c>
       <c r="K2" t="n">
-        <v>50611.10814626381</v>
+        <v>59782.51083278006</v>
       </c>
       <c r="L2" t="n">
-        <v>50611.10814626381</v>
+        <v>67908.67131615359</v>
       </c>
       <c r="M2" t="n">
-        <v>50611.10814626381</v>
+        <v>73418.0157254215</v>
       </c>
       <c r="N2" t="n">
-        <v>50611.10814626381</v>
+        <v>83025.7714246223</v>
       </c>
       <c r="O2" t="n">
-        <v>50611.10814626381</v>
+        <v>70860.56105315711</v>
       </c>
       <c r="P2" t="n">
-        <v>50611.10814626381</v>
+        <v>77326.33269863663</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>52487.54608298991</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>18723.45820516361</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>43150.78022371134</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>35420.32102921008</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>19188.67006529684</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>15132.90430931866</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>25000.01853232879</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>20103.88400755238</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20103.88400755238</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>9629.972820842049</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18162.44132838425</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23947.25295811555</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>34035.39644227637</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>21261.92555223795</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>28050.98577999142</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660707</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660707</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="E6" t="n">
-        <v>-86100.50395874456</v>
+        <v>-104095.9927980384</v>
       </c>
       <c r="F6" t="n">
-        <v>46999.49604125549</v>
+        <v>29004.00720196162</v>
       </c>
       <c r="G6" t="n">
-        <v>46999.49604125549</v>
+        <v>29004.00720196161</v>
       </c>
       <c r="H6" t="n">
-        <v>46999.49604125549</v>
+        <v>29004.00720196163</v>
       </c>
       <c r="I6" t="n">
-        <v>46999.49604125549</v>
+        <v>29004.00720196162</v>
       </c>
       <c r="J6" t="n">
-        <v>46999.49604125549</v>
+        <v>29004.00720196162</v>
       </c>
       <c r="K6" t="n">
-        <v>46999.49604125549</v>
+        <v>29004.00720196161</v>
       </c>
       <c r="L6" t="n">
-        <v>46999.49604125549</v>
+        <v>29004.00720196161</v>
       </c>
       <c r="M6" t="n">
-        <v>46999.49604125549</v>
+        <v>29004.00720196161</v>
       </c>
       <c r="N6" t="n">
-        <v>46999.49604125549</v>
+        <v>29004.00720196163</v>
       </c>
       <c r="O6" t="n">
-        <v>46999.49604125549</v>
+        <v>29004.00720196161</v>
       </c>
       <c r="P6" t="n">
-        <v>46999.49604125549</v>
+        <v>29004.00720196163</v>
       </c>
     </row>
   </sheetData>
